--- a/hypatia/examples/Planning_2Regions_UnMetDemand/parameters/parameters_reg1.xlsx
+++ b/hypatia/examples/Planning_2Regions_UnMetDemand/parameters/parameters_reg1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hypatia-SESAM-Dev\Hypatia-polimi\hypatia\examples\Planning_teaching_2Regions_UnMetDemand\parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10776907_polimi_it/Documents/Documenti/GitHub/Hypatia-polimi/hypatia/examples/Planning_2Regions_UnMetDemand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196191DA-C6C8-4591-BDEE-51036B55054B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{196191DA-C6C8-4591-BDEE-51036B55054B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEB70AF3-289A-4A9A-8AC4-A814592D0660}"/>
   <bookViews>
-    <workbookView xWindow="-4215" yWindow="-21720" windowWidth="38640" windowHeight="21120" firstSheet="32" activeTab="39" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F_OM" sheetId="1" r:id="rId1"/>
@@ -13820,6 +13820,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A74:A97"/>
+    <mergeCell ref="A50:A73"/>
+    <mergeCell ref="A410:A433"/>
+    <mergeCell ref="A146:A169"/>
+    <mergeCell ref="A242:A265"/>
+    <mergeCell ref="A218:A241"/>
+    <mergeCell ref="A674:A697"/>
+    <mergeCell ref="A722:A745"/>
+    <mergeCell ref="A698:A721"/>
+    <mergeCell ref="A578:A601"/>
+    <mergeCell ref="A266:A289"/>
+    <mergeCell ref="A530:A553"/>
+    <mergeCell ref="A458:A481"/>
+    <mergeCell ref="A434:A457"/>
+    <mergeCell ref="A338:A361"/>
     <mergeCell ref="A26:A49"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="A122:A145"/>
@@ -13836,21 +13851,6 @@
     <mergeCell ref="A626:A649"/>
     <mergeCell ref="A602:A625"/>
     <mergeCell ref="A554:A577"/>
-    <mergeCell ref="A674:A697"/>
-    <mergeCell ref="A722:A745"/>
-    <mergeCell ref="A698:A721"/>
-    <mergeCell ref="A578:A601"/>
-    <mergeCell ref="A266:A289"/>
-    <mergeCell ref="A530:A553"/>
-    <mergeCell ref="A458:A481"/>
-    <mergeCell ref="A434:A457"/>
-    <mergeCell ref="A338:A361"/>
-    <mergeCell ref="A74:A97"/>
-    <mergeCell ref="A50:A73"/>
-    <mergeCell ref="A410:A433"/>
-    <mergeCell ref="A146:A169"/>
-    <mergeCell ref="A242:A265"/>
-    <mergeCell ref="A218:A241"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -45463,23 +45463,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A700:A723"/>
-    <mergeCell ref="A724:A747"/>
-    <mergeCell ref="A604:A627"/>
-    <mergeCell ref="A580:A603"/>
-    <mergeCell ref="A220:A243"/>
-    <mergeCell ref="A460:A483"/>
-    <mergeCell ref="A676:A699"/>
-    <mergeCell ref="A52:A75"/>
-    <mergeCell ref="A412:A435"/>
-    <mergeCell ref="A652:A675"/>
-    <mergeCell ref="A556:A579"/>
-    <mergeCell ref="A532:A555"/>
-    <mergeCell ref="A508:A531"/>
-    <mergeCell ref="A628:A651"/>
-    <mergeCell ref="A340:A363"/>
-    <mergeCell ref="A364:A387"/>
-    <mergeCell ref="A172:A195"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A388:A411"/>
     <mergeCell ref="A244:A267"/>
@@ -45496,6 +45479,23 @@
     <mergeCell ref="A292:A315"/>
     <mergeCell ref="A148:A171"/>
     <mergeCell ref="A28:A51"/>
+    <mergeCell ref="A52:A75"/>
+    <mergeCell ref="A412:A435"/>
+    <mergeCell ref="A652:A675"/>
+    <mergeCell ref="A556:A579"/>
+    <mergeCell ref="A532:A555"/>
+    <mergeCell ref="A508:A531"/>
+    <mergeCell ref="A628:A651"/>
+    <mergeCell ref="A340:A363"/>
+    <mergeCell ref="A364:A387"/>
+    <mergeCell ref="A172:A195"/>
+    <mergeCell ref="A700:A723"/>
+    <mergeCell ref="A724:A747"/>
+    <mergeCell ref="A604:A627"/>
+    <mergeCell ref="A580:A603"/>
+    <mergeCell ref="A220:A243"/>
+    <mergeCell ref="A460:A483"/>
+    <mergeCell ref="A676:A699"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -60485,7 +60485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F582B164-071A-4963-8142-6E033F42ACD8}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
@@ -66356,8 +66356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -66428,13 +66428,13 @@
         <v>53</v>
       </c>
       <c r="B4">
-        <v>2183746</v>
+        <v>100000</v>
       </c>
       <c r="C4">
-        <v>1257960</v>
+        <v>100000</v>
       </c>
       <c r="D4" s="2">
-        <v>10000000000</v>
+        <v>100000</v>
       </c>
       <c r="E4">
         <v>8760</v>
